--- a/similarities/split_global/harmonic_similarity_timestamps_357.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_357.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
+          <t>('0:00:33.698526', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:40.820000', '0:00:43.620000'), ('0:01:34.800000', '0:01:46.960000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=94.8']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['E:7', 'A:min', 'A:min/b3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:13.880000')]</t>
+          <t>('0:00:28.960000', '0:00:49.060000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+          <t>('0:00:05.672040', '0:00:08.841564')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=28.96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=59.26']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['C:7', 'F', 'Bb:7', 'F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:7', 'Bb', 'Eb:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:00:12.300000', '0:00:17.160000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:44.820000', '0:00:47.280000')]</t>
+          <t>('0:00:26.670000', '0:00:36.510000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=12.3</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.67</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:13.210000', '0:00:15.930000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:04.660000', '0:01:11.060000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:07.990000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:49.731904', '0:00:55.594943')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-23#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=49.731904']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['D', 'G:min', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['B:maj/F#', 'E:min/G', 'B:maj/F#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:17.680000', '0:00:20.040000')]</t>
+          <t>('0:02:04.737522', '0:02:11.471309')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:23.575000', '0:00:34.995000')]</t>
+          <t>('0:01:27.240000', '0:01:29.460000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=124.737522</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=87.24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:46.590000', '0:00:53.060000')]</t>
+          <t>('0:00:22.370000', '0:00:40.370000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:27.250000', '0:00:30.810000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=46.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
+          <t>('0:00:03.884104', '0:00:23.632675')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=18.64']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:11.950000', '0:00:15.800000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:05.320000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=11.95</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['E:7', 'A:min', 'G#:dim7', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D/3']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:11.260000', '0:00:13.160000')]</t>
+          <t>('0:00:19.360000', '0:00:25.140000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:08.669000', '0:01:14.662000')]</t>
+          <t>('0:01:15.980000', '0:01:25.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=19.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=75.98</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000'), ('0:01:14.100000', '0:01:20.040000'), ('0:00:34.860000', '0:00:39.700000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:05.360000'), ('0:02:04.300000', '0:02:09.240000'), ('0:00:34.640000', '0:00:39')]</t>
+          <t>('0:01:56.690000', '0:02:02.570000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=34.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
+          <t>('0:00:52.740000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:09.440000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=0.446618']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:01:56.690000', '0:02:02.570000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:14.900000', '0:00:20.360000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=14.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C', 'G/3', 'C', 'G/3']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11.860000', '0:00:15.880000')]</t>
+          <t>('0:00:21.020000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:10.148000', '0:02:12.444000')]</t>
+          <t>('0:00:46.220000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=21.02</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.148']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.22</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000'), ('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000'), ('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
